--- a/data_year/zb/就业人员和工资/按行业分城镇私营单位就业人员平均工资.xlsx
+++ b/data_year/zb/就业人员和工资/按行业分城镇私营单位就业人员平均工资.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -538,793 +538,791 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19633.5350200194</v>
+        <v>21989</v>
       </c>
       <c r="C2" t="n">
-        <v>15623</v>
+        <v>17531</v>
       </c>
       <c r="D2" t="n">
-        <v>28166</v>
+        <v>31226</v>
       </c>
       <c r="E2" t="n">
-        <v>8190.54760339755</v>
+        <v>8900</v>
       </c>
       <c r="F2" t="n">
-        <v>14584.6306098665</v>
+        <v>16370</v>
       </c>
       <c r="G2" t="n">
-        <v>17259.9330925054</v>
+        <v>20090</v>
       </c>
       <c r="H2" t="n">
-        <v>18641</v>
+        <v>21571</v>
       </c>
       <c r="I2" t="n">
-        <v>18198.9933639475</v>
+        <v>20759</v>
       </c>
       <c r="J2" t="n">
-        <v>15688</v>
+        <v>18350</v>
       </c>
       <c r="K2" t="n">
-        <v>19867.0554432939</v>
+        <v>22228</v>
       </c>
       <c r="L2" t="n">
-        <v>21334</v>
+        <v>23228</v>
       </c>
       <c r="M2" t="n">
-        <v>17775</v>
+        <v>19928</v>
       </c>
       <c r="N2" t="n">
-        <v>21066</v>
+        <v>21862</v>
       </c>
       <c r="O2" t="n">
-        <v>17339</v>
+        <v>20012</v>
       </c>
       <c r="P2" t="n">
-        <v>17170</v>
+        <v>19607</v>
       </c>
       <c r="Q2" t="n">
-        <v>17795.4379264291</v>
+        <v>18834</v>
       </c>
       <c r="R2" t="n">
-        <v>26187</v>
+        <v>28886</v>
       </c>
       <c r="S2" t="n">
-        <v>21334</v>
+        <v>23879</v>
       </c>
       <c r="T2" t="n">
-        <v>18552.6436611374</v>
+        <v>20981</v>
       </c>
       <c r="U2" t="n">
-        <v>30452</v>
+        <v>30513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21989</v>
+        <v>25949</v>
       </c>
       <c r="C3" t="n">
-        <v>17531</v>
+        <v>20882</v>
       </c>
       <c r="D3" t="n">
-        <v>31226</v>
+        <v>35562</v>
       </c>
       <c r="E3" t="n">
-        <v>8900</v>
+        <v>11738</v>
       </c>
       <c r="F3" t="n">
-        <v>16370</v>
+        <v>19223</v>
       </c>
       <c r="G3" t="n">
-        <v>20090</v>
+        <v>24138</v>
       </c>
       <c r="H3" t="n">
-        <v>21571</v>
+        <v>25590</v>
       </c>
       <c r="I3" t="n">
-        <v>20759</v>
+        <v>24556</v>
       </c>
       <c r="J3" t="n">
-        <v>18350</v>
+        <v>20543</v>
       </c>
       <c r="K3" t="n">
-        <v>22228</v>
+        <v>26108</v>
       </c>
       <c r="L3" t="n">
-        <v>23228</v>
+        <v>27017</v>
       </c>
       <c r="M3" t="n">
-        <v>19928</v>
+        <v>22791</v>
       </c>
       <c r="N3" t="n">
-        <v>21862</v>
+        <v>23636</v>
       </c>
       <c r="O3" t="n">
-        <v>20012</v>
+        <v>22666</v>
       </c>
       <c r="P3" t="n">
-        <v>19607</v>
+        <v>22958</v>
       </c>
       <c r="Q3" t="n">
-        <v>18834</v>
+        <v>22091</v>
       </c>
       <c r="R3" t="n">
-        <v>28886</v>
+        <v>31320</v>
       </c>
       <c r="S3" t="n">
-        <v>23879</v>
+        <v>27115</v>
       </c>
       <c r="T3" t="n">
-        <v>20981</v>
+        <v>25519</v>
       </c>
       <c r="U3" t="n">
-        <v>30513</v>
+        <v>28664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25949</v>
+        <v>28159</v>
       </c>
       <c r="C4" t="n">
-        <v>20882</v>
+        <v>23933</v>
       </c>
       <c r="D4" t="n">
-        <v>35562</v>
+        <v>39518</v>
       </c>
       <c r="E4" t="n">
-        <v>11738</v>
+        <v>10858</v>
       </c>
       <c r="F4" t="n">
-        <v>19223</v>
+        <v>21973</v>
       </c>
       <c r="G4" t="n">
-        <v>24138</v>
+        <v>28215</v>
       </c>
       <c r="H4" t="n">
-        <v>25590</v>
+        <v>29173</v>
       </c>
       <c r="I4" t="n">
-        <v>24556</v>
+        <v>28752</v>
       </c>
       <c r="J4" t="n">
-        <v>20543</v>
+        <v>24068</v>
       </c>
       <c r="K4" t="n">
-        <v>26108</v>
+        <v>30911</v>
       </c>
       <c r="L4" t="n">
-        <v>27017</v>
+        <v>30778</v>
       </c>
       <c r="M4" t="n">
-        <v>22791</v>
+        <v>27233</v>
       </c>
       <c r="N4" t="n">
-        <v>23636</v>
+        <v>26625</v>
       </c>
       <c r="O4" t="n">
-        <v>22666</v>
+        <v>26177</v>
       </c>
       <c r="P4" t="n">
-        <v>22958</v>
+        <v>26402</v>
       </c>
       <c r="Q4" t="n">
-        <v>22091</v>
+        <v>25478</v>
       </c>
       <c r="R4" t="n">
-        <v>31320</v>
+        <v>36598</v>
       </c>
       <c r="S4" t="n">
-        <v>27115</v>
+        <v>31796</v>
       </c>
       <c r="T4" t="n">
-        <v>25519</v>
+        <v>29684</v>
       </c>
       <c r="U4" t="n">
-        <v>28664</v>
+        <v>32696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28159</v>
+        <v>33141</v>
       </c>
       <c r="C5" t="n">
-        <v>23933</v>
+        <v>27352</v>
       </c>
       <c r="D5" t="n">
-        <v>39518</v>
+        <v>44060</v>
       </c>
       <c r="E5" t="n">
-        <v>10858</v>
+        <v>33953</v>
       </c>
       <c r="F5" t="n">
-        <v>21973</v>
+        <v>24645</v>
       </c>
       <c r="G5" t="n">
-        <v>28215</v>
+        <v>32035</v>
       </c>
       <c r="H5" t="n">
-        <v>29173</v>
+        <v>33862</v>
       </c>
       <c r="I5" t="n">
-        <v>28752</v>
+        <v>32706</v>
       </c>
       <c r="J5" t="n">
-        <v>24068</v>
+        <v>27483</v>
       </c>
       <c r="K5" t="n">
-        <v>30911</v>
+        <v>34882</v>
       </c>
       <c r="L5" t="n">
-        <v>30778</v>
+        <v>35038</v>
       </c>
       <c r="M5" t="n">
-        <v>27233</v>
+        <v>30604</v>
       </c>
       <c r="N5" t="n">
-        <v>26625</v>
+        <v>31521</v>
       </c>
       <c r="O5" t="n">
-        <v>26177</v>
+        <v>30402</v>
       </c>
       <c r="P5" t="n">
-        <v>26402</v>
+        <v>31241</v>
       </c>
       <c r="Q5" t="n">
-        <v>25478</v>
+        <v>29597</v>
       </c>
       <c r="R5" t="n">
-        <v>36598</v>
+        <v>42854</v>
       </c>
       <c r="S5" t="n">
-        <v>31796</v>
+        <v>36243</v>
       </c>
       <c r="T5" t="n">
-        <v>29684</v>
+        <v>33081</v>
       </c>
       <c r="U5" t="n">
-        <v>32696</v>
+        <v>37253</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33141</v>
+        <v>38891</v>
       </c>
       <c r="C6" t="n">
-        <v>27352</v>
+        <v>29483</v>
       </c>
       <c r="D6" t="n">
-        <v>44060</v>
+        <v>51044</v>
       </c>
       <c r="E6" t="n">
-        <v>33953</v>
+        <v>26744</v>
       </c>
       <c r="F6" t="n">
-        <v>24645</v>
+        <v>26862</v>
       </c>
       <c r="G6" t="n">
-        <v>32035</v>
+        <v>35653</v>
       </c>
       <c r="H6" t="n">
-        <v>33862</v>
+        <v>37205</v>
       </c>
       <c r="I6" t="n">
-        <v>32706</v>
+        <v>36390</v>
       </c>
       <c r="J6" t="n">
-        <v>27483</v>
+        <v>30580</v>
       </c>
       <c r="K6" t="n">
-        <v>34882</v>
+        <v>38838</v>
       </c>
       <c r="L6" t="n">
-        <v>35038</v>
+        <v>37826</v>
       </c>
       <c r="M6" t="n">
-        <v>30604</v>
+        <v>33894</v>
       </c>
       <c r="N6" t="n">
-        <v>31521</v>
+        <v>33678</v>
       </c>
       <c r="O6" t="n">
-        <v>30402</v>
+        <v>32024</v>
       </c>
       <c r="P6" t="n">
-        <v>31241</v>
+        <v>33847</v>
       </c>
       <c r="Q6" t="n">
-        <v>29597</v>
+        <v>33184</v>
       </c>
       <c r="R6" t="n">
-        <v>42854</v>
+        <v>47462</v>
       </c>
       <c r="S6" t="n">
-        <v>36243</v>
+        <v>39414</v>
       </c>
       <c r="T6" t="n">
-        <v>33081</v>
+        <v>35819</v>
       </c>
       <c r="U6" t="n">
-        <v>37253</v>
+        <v>41553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38891</v>
+        <v>40495</v>
       </c>
       <c r="C7" t="n">
-        <v>29483</v>
+        <v>31889</v>
       </c>
       <c r="D7" t="n">
-        <v>51044</v>
-      </c>
-      <c r="E7" t="n">
-        <v>26744</v>
-      </c>
+        <v>57719</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>26862</v>
+        <v>28869</v>
       </c>
       <c r="G7" t="n">
-        <v>35653</v>
+        <v>38948</v>
       </c>
       <c r="H7" t="n">
-        <v>37205</v>
+        <v>40558</v>
       </c>
       <c r="I7" t="n">
-        <v>36390</v>
+        <v>39589</v>
       </c>
       <c r="J7" t="n">
-        <v>30580</v>
+        <v>33203</v>
       </c>
       <c r="K7" t="n">
-        <v>38838</v>
+        <v>41710</v>
       </c>
       <c r="L7" t="n">
-        <v>37826</v>
+        <v>41767</v>
       </c>
       <c r="M7" t="n">
-        <v>33894</v>
+        <v>36635</v>
       </c>
       <c r="N7" t="n">
-        <v>33678</v>
+        <v>37040</v>
       </c>
       <c r="O7" t="n">
-        <v>32024</v>
+        <v>34974</v>
       </c>
       <c r="P7" t="n">
-        <v>33847</v>
+        <v>37222</v>
       </c>
       <c r="Q7" t="n">
-        <v>33184</v>
+        <v>34631</v>
       </c>
       <c r="R7" t="n">
-        <v>47462</v>
+        <v>50441</v>
       </c>
       <c r="S7" t="n">
-        <v>39414</v>
+        <v>43770</v>
       </c>
       <c r="T7" t="n">
-        <v>35819</v>
+        <v>38192</v>
       </c>
       <c r="U7" t="n">
-        <v>41553</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40495</v>
+        <v>42705</v>
       </c>
       <c r="C8" t="n">
-        <v>31889</v>
+        <v>34712</v>
       </c>
       <c r="D8" t="n">
-        <v>57719</v>
+        <v>63578</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>28869</v>
+        <v>31301</v>
       </c>
       <c r="G8" t="n">
-        <v>38948</v>
+        <v>42115</v>
       </c>
       <c r="H8" t="n">
-        <v>40558</v>
+        <v>43993</v>
       </c>
       <c r="I8" t="n">
+        <v>42833</v>
+      </c>
+      <c r="J8" t="n">
+        <v>35824</v>
+      </c>
+      <c r="K8" t="n">
+        <v>44803</v>
+      </c>
+      <c r="L8" t="n">
+        <v>46063</v>
+      </c>
+      <c r="M8" t="n">
         <v>39589</v>
       </c>
-      <c r="J8" t="n">
-        <v>33203</v>
-      </c>
-      <c r="K8" t="n">
-        <v>41710</v>
-      </c>
-      <c r="L8" t="n">
-        <v>41767</v>
-      </c>
-      <c r="M8" t="n">
-        <v>36635</v>
-      </c>
       <c r="N8" t="n">
-        <v>37040</v>
+        <v>39508</v>
       </c>
       <c r="O8" t="n">
-        <v>34974</v>
+        <v>38228</v>
       </c>
       <c r="P8" t="n">
-        <v>37222</v>
+        <v>40099</v>
       </c>
       <c r="Q8" t="n">
-        <v>34631</v>
+        <v>38605</v>
       </c>
       <c r="R8" t="n">
-        <v>50441</v>
+        <v>54764</v>
       </c>
       <c r="S8" t="n">
-        <v>43770</v>
+        <v>47836</v>
       </c>
       <c r="T8" t="n">
-        <v>38192</v>
+        <v>39600</v>
       </c>
       <c r="U8" t="n">
-        <v>44898</v>
+        <v>50366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42705</v>
+        <v>45852</v>
       </c>
       <c r="C9" t="n">
-        <v>34712</v>
+        <v>36886</v>
       </c>
       <c r="D9" t="n">
-        <v>63578</v>
+        <v>70415</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>31301</v>
+        <v>34272</v>
       </c>
       <c r="G9" t="n">
-        <v>42115</v>
+        <v>44991</v>
       </c>
       <c r="H9" t="n">
-        <v>43993</v>
+        <v>47296</v>
       </c>
       <c r="I9" t="n">
-        <v>42833</v>
+        <v>45761</v>
       </c>
       <c r="J9" t="n">
-        <v>35824</v>
+        <v>38417</v>
       </c>
       <c r="K9" t="n">
-        <v>44803</v>
+        <v>46944</v>
       </c>
       <c r="L9" t="n">
-        <v>46063</v>
+        <v>48025</v>
       </c>
       <c r="M9" t="n">
-        <v>39589</v>
+        <v>42359</v>
       </c>
       <c r="N9" t="n">
-        <v>39508</v>
+        <v>43263</v>
       </c>
       <c r="O9" t="n">
-        <v>38228</v>
+        <v>41201</v>
       </c>
       <c r="P9" t="n">
-        <v>40099</v>
+        <v>41061</v>
       </c>
       <c r="Q9" t="n">
-        <v>38605</v>
+        <v>41510</v>
       </c>
       <c r="R9" t="n">
-        <v>54764</v>
+        <v>58102</v>
       </c>
       <c r="S9" t="n">
-        <v>47836</v>
+        <v>51394</v>
       </c>
       <c r="T9" t="n">
-        <v>39600</v>
+        <v>41236</v>
       </c>
       <c r="U9" t="n">
-        <v>50366</v>
+        <v>52289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45852</v>
+        <v>50547</v>
       </c>
       <c r="C10" t="n">
-        <v>36886</v>
+        <v>39632</v>
       </c>
       <c r="D10" t="n">
-        <v>70415</v>
+        <v>76326</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>34272</v>
+        <v>36375</v>
       </c>
       <c r="G10" t="n">
-        <v>44991</v>
+        <v>49275</v>
       </c>
       <c r="H10" t="n">
-        <v>47296</v>
+        <v>52343</v>
       </c>
       <c r="I10" t="n">
-        <v>45761</v>
+        <v>49575</v>
       </c>
       <c r="J10" t="n">
-        <v>38417</v>
+        <v>41058</v>
       </c>
       <c r="K10" t="n">
-        <v>46944</v>
+        <v>50879</v>
       </c>
       <c r="L10" t="n">
-        <v>48025</v>
+        <v>51393</v>
       </c>
       <c r="M10" t="n">
-        <v>42359</v>
+        <v>45177</v>
       </c>
       <c r="N10" t="n">
-        <v>43263</v>
+        <v>46228</v>
       </c>
       <c r="O10" t="n">
-        <v>41201</v>
+        <v>44592</v>
       </c>
       <c r="P10" t="n">
-        <v>41061</v>
+        <v>42409</v>
       </c>
       <c r="Q10" t="n">
-        <v>41510</v>
+        <v>44239</v>
       </c>
       <c r="R10" t="n">
-        <v>58102</v>
+        <v>61876</v>
       </c>
       <c r="S10" t="n">
-        <v>51394</v>
+        <v>53382</v>
       </c>
       <c r="T10" t="n">
-        <v>41236</v>
+        <v>44096</v>
       </c>
       <c r="U10" t="n">
-        <v>52289</v>
+        <v>62943</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50547</v>
+        <v>54006</v>
       </c>
       <c r="C11" t="n">
-        <v>39632</v>
+        <v>42424</v>
       </c>
       <c r="D11" t="n">
-        <v>76326</v>
+        <v>85301</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>36375</v>
+        <v>37760</v>
       </c>
       <c r="G11" t="n">
-        <v>49275</v>
+        <v>52858</v>
       </c>
       <c r="H11" t="n">
-        <v>52343</v>
+        <v>57140</v>
       </c>
       <c r="I11" t="n">
-        <v>49575</v>
+        <v>53604</v>
       </c>
       <c r="J11" t="n">
-        <v>41058</v>
+        <v>43926</v>
       </c>
       <c r="K11" t="n">
-        <v>50879</v>
+        <v>54167</v>
       </c>
       <c r="L11" t="n">
-        <v>51393</v>
+        <v>54416</v>
       </c>
       <c r="M11" t="n">
-        <v>45177</v>
+        <v>48722</v>
       </c>
       <c r="N11" t="n">
-        <v>46228</v>
+        <v>50761</v>
       </c>
       <c r="O11" t="n">
-        <v>44592</v>
+        <v>49289</v>
       </c>
       <c r="P11" t="n">
-        <v>42409</v>
+        <v>44444</v>
       </c>
       <c r="Q11" t="n">
-        <v>44239</v>
+        <v>49633</v>
       </c>
       <c r="R11" t="n">
-        <v>61876</v>
+        <v>67642</v>
       </c>
       <c r="S11" t="n">
-        <v>53382</v>
+        <v>57248</v>
       </c>
       <c r="T11" t="n">
-        <v>44096</v>
+        <v>49675</v>
       </c>
       <c r="U11" t="n">
-        <v>62943</v>
+        <v>76107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54006</v>
+        <v>57313</v>
       </c>
       <c r="C12" t="n">
-        <v>42424</v>
+        <v>42258</v>
       </c>
       <c r="D12" t="n">
-        <v>85301</v>
+        <v>101281</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>37760</v>
+        <v>38956</v>
       </c>
       <c r="G12" t="n">
-        <v>52858</v>
+        <v>57910</v>
       </c>
       <c r="H12" t="n">
-        <v>57140</v>
+        <v>60689</v>
       </c>
       <c r="I12" t="n">
-        <v>53604</v>
+        <v>57727</v>
       </c>
       <c r="J12" t="n">
-        <v>43926</v>
+        <v>44536</v>
       </c>
       <c r="K12" t="n">
-        <v>54167</v>
+        <v>57309</v>
       </c>
       <c r="L12" t="n">
-        <v>54416</v>
+        <v>55759</v>
       </c>
       <c r="M12" t="n">
-        <v>48722</v>
+        <v>53018</v>
       </c>
       <c r="N12" t="n">
-        <v>50761</v>
+        <v>48443</v>
       </c>
       <c r="O12" t="n">
-        <v>49289</v>
+        <v>51300</v>
       </c>
       <c r="P12" t="n">
-        <v>44444</v>
+        <v>43287</v>
       </c>
       <c r="Q12" t="n">
-        <v>49633</v>
+        <v>54268</v>
       </c>
       <c r="R12" t="n">
-        <v>67642</v>
+        <v>72233</v>
       </c>
       <c r="S12" t="n">
-        <v>57248</v>
+        <v>58155</v>
       </c>
       <c r="T12" t="n">
-        <v>49675</v>
+        <v>54563</v>
       </c>
       <c r="U12" t="n">
-        <v>76107</v>
+        <v>82930</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57313</v>
+        <v>62411</v>
       </c>
       <c r="C13" t="n">
-        <v>42258</v>
+        <v>46817</v>
       </c>
       <c r="D13" t="n">
-        <v>101281</v>
+        <v>114618</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>38956</v>
+        <v>41442</v>
       </c>
       <c r="G13" t="n">
-        <v>57910</v>
+        <v>63946</v>
       </c>
       <c r="H13" t="n">
-        <v>60689</v>
+        <v>67750</v>
       </c>
       <c r="I13" t="n">
-        <v>57727</v>
+        <v>62884</v>
       </c>
       <c r="J13" t="n">
-        <v>44536</v>
+        <v>47193</v>
       </c>
       <c r="K13" t="n">
-        <v>57309</v>
+        <v>60430</v>
       </c>
       <c r="L13" t="n">
-        <v>55759</v>
+        <v>58288</v>
       </c>
       <c r="M13" t="n">
-        <v>53018</v>
+        <v>58071</v>
       </c>
       <c r="N13" t="n">
-        <v>48443</v>
+        <v>52579</v>
       </c>
       <c r="O13" t="n">
-        <v>51300</v>
+        <v>56171</v>
       </c>
       <c r="P13" t="n">
-        <v>43287</v>
+        <v>43366</v>
       </c>
       <c r="Q13" t="n">
-        <v>54268</v>
+        <v>59271</v>
       </c>
       <c r="R13" t="n">
-        <v>72233</v>
+        <v>77708</v>
       </c>
       <c r="S13" t="n">
-        <v>58155</v>
+        <v>64490</v>
       </c>
       <c r="T13" t="n">
-        <v>54563</v>
+        <v>62665</v>
       </c>
       <c r="U13" t="n">
-        <v>82930</v>
+        <v>95416</v>
       </c>
     </row>
   </sheetData>
